--- a/Résultats expérimentaux/Resistances.xlsx
+++ b/Résultats expérimentaux/Resistances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/596fece5f6475ce4/INSA/4GP/Git/2023-2024-LEROI-FABRE/Résultats expérimentaux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{51F33E1C-E023-4E62-A0CF-A20C48241FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F7F97A-A94A-4AA1-BDFD-79D059A45B74}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{51F33E1C-E023-4E62-A0CF-A20C48241FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6EE3CCD-FA6D-4213-9037-4A58C5F3F17A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F71826C-A919-4064-B0D6-2EF0B44262A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Compression</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Déformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déformation </t>
+  </si>
+  <si>
+    <t>Epaisseur feuille</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>HB2</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -219,9 +237,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -233,7 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,6 +345,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -360,25 +387,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -429,6 +456,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -460,25 +498,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -529,6 +567,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -560,25 +609,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -629,6 +678,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -660,25 +720,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1132,6 +1192,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1163,25 +1234,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1232,6 +1303,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1263,25 +1345,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1332,6 +1414,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1363,25 +1456,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1432,6 +1525,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1463,25 +1567,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2.2857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1526,6 +1630,1758 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5458-4629-9550-B54B1EEF285C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="469819584"/>
+        <c:axId val="469820064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="469819584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Déformation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469820064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="469820064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>DeltaR/R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469819584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Tendance en Compression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39619174331006313"/>
+          <c:y val="2.5573678078229693E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11078395932821042"/>
+          <c:y val="0.27142105668527716"/>
+          <c:w val="0.80786918127423435"/>
+          <c:h val="0.41086346273284291"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$20:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$20:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-28.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-23.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-650F-466B-ADC7-F7C0680C37C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$20:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$J$20:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-14.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.1111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.1111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-650F-466B-ADC7-F7C0680C37C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$20:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$20:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-29.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.083333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.708333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-650F-466B-ADC7-F7C0680C37C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$20:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$20:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-28.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-26.666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-24.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-650F-466B-ADC7-F7C0680C37C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1506692144"/>
+        <c:axId val="124884032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1506692144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Déformation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43405212691302331"/>
+              <c:y val="0.13947386964565758"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124884032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124884032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>DeltaR/R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1506692144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Tendance Extension</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$28:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$28:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C471-4941-B8BF-87D809DBC74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$28:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$J$28:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C471-4941-B8BF-87D809DBC74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$28:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$28:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.809523809523801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2857142857142918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4285714285714319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C471-4941-B8BF-87D809DBC74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$28:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$28:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27.200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C471-4941-B8BF-87D809DBC74A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1937,6 +3793,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2454,6 +4390,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3038,6 +6006,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12330</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762801</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>153572</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06960B5-AA36-4255-B188-51503921CB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>750471</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>165901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C296F7B8-49B6-46C3-8756-C94BD86310BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3363,10 +6407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9340D7B3-3088-4154-A354-CE890C23416D}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="G45" zoomScale="130" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3376,9 +6420,10 @@
     <col min="4" max="4" width="17.6328125" customWidth="1"/>
     <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -3409,513 +6454,622 @@
       <c r="L1" t="s">
         <v>6</v>
       </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7">
         <v>486</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>486</v>
       </c>
       <c r="E2">
         <v>9158</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>18191</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="O2" s="8">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f>$N$4/(2*O2)</f>
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>85</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>386</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1.07</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f>(C3-$C$17)/$C$17</f>
         <v>-0.32</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f>(D3-$D$18)/$D$18</f>
         <v>-0.14222222222222222</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f>(E3-$E$18)/$E$18</f>
         <v>-0.29166666666666669</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <f>(F3-$F$18)/$F$18</f>
         <v>-0.28666666666666663</v>
       </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="P3">
+        <f>$N$4/(2*O3)</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="9">
         <v>2.5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>90</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>398</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>18.96</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f t="shared" ref="I4:I16" si="0">(C4-$C$17)/$C$17</f>
         <v>-0.28000000000000003</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f t="shared" ref="J4:J9" si="1">(D4-$D$18)/$D$18</f>
         <v>-0.11555555555555555</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K9" si="2">(E4-$E$18)/$E$18</f>
         <v>-0.20999999999999996</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <f t="shared" ref="L4:L9" si="3">(F4-$F$18)/$F$18</f>
         <v>-0.26666666666666661</v>
       </c>
+      <c r="N4">
+        <v>0.16</v>
+      </c>
+      <c r="O4" s="9">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <f>$N$4/(2*O4)</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>96</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>407</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>19.899999999999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>-0.23200000000000001</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" si="1"/>
         <v>-9.555555555555556E-2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" si="2"/>
         <v>-0.17083333333333339</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <f t="shared" si="3"/>
         <v>-0.24000000000000007</v>
       </c>
+      <c r="O5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <f>$N$4/(2*O5)</f>
+        <v>2.2857142857142857E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
         <v>3.5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>102</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>418</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>20.23</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1.17</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>-0.184</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="1"/>
         <v>-7.1111111111111111E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="2"/>
         <v>-0.15708333333333332</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
         <v>-0.22000000000000006</v>
       </c>
+      <c r="O6" s="9">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f>$N$4/(2*O6)</f>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>107</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>427</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>22</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1.21</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>-0.14399999999999999</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f t="shared" si="1"/>
         <v>-5.1111111111111114E-2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <f t="shared" si="2"/>
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f t="shared" si="3"/>
         <v>-0.19333333333333336</v>
       </c>
+      <c r="O7" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <f>$N$4/(2*O7)</f>
+        <v>1.7777777777777778E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
         <v>4.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>109</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>431</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>22.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1.23</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>-0.128</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f t="shared" si="1"/>
         <v>-4.2222222222222223E-2</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <f t="shared" si="2"/>
         <v>-6.25E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <f t="shared" si="3"/>
         <v>-0.18000000000000002</v>
       </c>
+      <c r="O8" s="10">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f>$N$4/(2*O8)</f>
+        <v>1.6E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>114</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>439</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>22.98</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1.26</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>-8.7999999999999995E-2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <f t="shared" si="1"/>
         <v>-2.4444444444444446E-2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f t="shared" si="2"/>
         <v>-4.2499999999999982E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
         <v>-0.16</v>
       </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>168</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>590</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>27</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1.59</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>0.34399999999999997</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <f>(D10-$D$17)/$D$17</f>
         <v>0.18</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <f>(E10-$E$17)/$E$17</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f>(F10-$F$17)/$F$17</f>
         <v>0.27200000000000008</v>
       </c>
+      <c r="O10" s="8">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P4:P17" si="4">$N$4/(2*O10)</f>
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
         <v>2.5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>162</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>577</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>25.5</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1.55</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>0.29599999999999999</v>
       </c>
-      <c r="J11" s="9">
-        <f t="shared" ref="J11:J16" si="4">(D11-$D$17)/$D$17</f>
+      <c r="J11" s="8">
+        <f t="shared" ref="J11:J16" si="5">(D11-$D$17)/$D$17</f>
         <v>0.154</v>
       </c>
-      <c r="K11" s="9">
-        <f t="shared" ref="K11:K16" si="5">(E11-$E$17)/$E$17</f>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11:K16" si="6">(E11-$E$17)/$E$17</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="L11" s="4">
-        <f t="shared" ref="L11:L16" si="6">(F11-$F$17)/$F$17</f>
+      <c r="L11" s="3">
+        <f t="shared" ref="L11:L16" si="7">(F11-$F$17)/$F$17</f>
         <v>0.24000000000000005</v>
       </c>
+      <c r="O11" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>154</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>560</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>23.9</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1.5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>0.23200000000000001</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
+        <f t="shared" si="5"/>
+        <v>0.12</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="6"/>
+        <v>0.13809523809523802</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>3</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="5"/>
-        <v>0.13809523809523802</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
         <v>3.5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>150</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>552</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>22.5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1.47</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.104</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="7"/>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O13" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>0.104</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="5"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="6"/>
-        <v>0.17599999999999999</v>
+        <v>2.2857142857142857E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>143</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>539</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>22</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1.44</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
+        <f t="shared" si="5"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="6"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="7"/>
+        <v>0.15199999999999997</v>
+      </c>
+      <c r="O14" s="9">
+        <v>4</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
-        <v>7.8E-2</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="5"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.15199999999999997</v>
+        <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
         <v>4.5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>136</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>525</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>21.69</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>1.42</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142918E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="7"/>
+        <v>0.13599999999999995</v>
+      </c>
+      <c r="O15" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="5"/>
-        <v>3.2857142857142918E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="6"/>
-        <v>0.13599999999999995</v>
+        <v>1.7777777777777778E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="11">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>132</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>519</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>21.3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1.4</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
+        <f t="shared" si="5"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="6"/>
+        <v>1.428571428571432E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="7"/>
+        <v>0.11999999999999993</v>
+      </c>
+      <c r="O16" s="10">
+        <v>5</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="5"/>
-        <v>1.428571428571432E-2</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="6"/>
-        <v>0.11999999999999993</v>
+        <v>1.6E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>0</v>
       </c>
       <c r="C17">
@@ -3924,193 +7078,199 @@
       <c r="D17">
         <v>500</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>21</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="4">
         <v>1.25</v>
       </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="D18">
         <v>450</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>24</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="12"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E19" s="9"/>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I20" s="9">
-        <f>I3*100</f>
+        <v>0.04</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" ref="I20:L26" si="8">I3*100</f>
         <v>-32</v>
       </c>
-      <c r="J20" s="9">
-        <f>J3*100</f>
+      <c r="J20" s="8">
+        <f t="shared" si="8"/>
         <v>-14.222222222222221</v>
       </c>
-      <c r="K20" s="9">
-        <f>K3*100</f>
+      <c r="K20" s="8">
+        <f t="shared" si="8"/>
         <v>-29.166666666666668</v>
       </c>
-      <c r="L20" s="9">
-        <f>L3*100</f>
+      <c r="L20" s="8">
+        <f t="shared" si="8"/>
         <v>-28.666666666666664</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G21">
-        <v>0.12</v>
-      </c>
-      <c r="I21" s="9">
-        <f>I4*100</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="8"/>
         <v>-28.000000000000004</v>
       </c>
-      <c r="J21" s="9">
-        <f>J4*100</f>
+      <c r="J21" s="8">
+        <f t="shared" si="8"/>
         <v>-11.555555555555555</v>
       </c>
-      <c r="K21" s="9">
-        <f>K4*100</f>
+      <c r="K21" s="8">
+        <f t="shared" si="8"/>
         <v>-20.999999999999996</v>
       </c>
-      <c r="L21" s="9">
-        <f>L4*100</f>
+      <c r="L21" s="8">
+        <f t="shared" si="8"/>
         <v>-26.666666666666661</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G22">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="9">
-        <f>I5*100</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="8"/>
         <v>-23.200000000000003</v>
       </c>
-      <c r="J22" s="9">
-        <f>J5*100</f>
+      <c r="J22" s="8">
+        <f t="shared" si="8"/>
         <v>-9.5555555555555554</v>
       </c>
-      <c r="K22" s="9">
-        <f>K5*100</f>
+      <c r="K22" s="8">
+        <f t="shared" si="8"/>
         <v>-17.083333333333339</v>
       </c>
-      <c r="L22" s="9">
-        <f>L5*100</f>
+      <c r="L22" s="8">
+        <f t="shared" si="8"/>
         <v>-24.000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G23">
-        <v>0.08</v>
-      </c>
-      <c r="I23" s="9">
-        <f>I6*100</f>
+        <v>2.2857142857142857E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="8"/>
         <v>-18.399999999999999</v>
       </c>
-      <c r="J23" s="9">
-        <f>J6*100</f>
+      <c r="J23" s="8">
+        <f t="shared" si="8"/>
         <v>-7.1111111111111107</v>
       </c>
-      <c r="K23" s="9">
-        <f>K6*100</f>
+      <c r="K23" s="8">
+        <f t="shared" si="8"/>
         <v>-15.708333333333332</v>
       </c>
-      <c r="L23" s="9">
-        <f>L6*100</f>
+      <c r="L23" s="8">
+        <f t="shared" si="8"/>
         <v>-22.000000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G24">
-        <v>0.06</v>
-      </c>
-      <c r="I24" s="9">
-        <f>I7*100</f>
+        <v>0.02</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="8"/>
         <v>-14.399999999999999</v>
       </c>
-      <c r="J24" s="9">
-        <f>J7*100</f>
+      <c r="J24" s="8">
+        <f t="shared" si="8"/>
         <v>-5.1111111111111116</v>
       </c>
-      <c r="K24" s="9">
-        <f>K7*100</f>
+      <c r="K24" s="8">
+        <f t="shared" si="8"/>
         <v>-8.3333333333333321</v>
       </c>
-      <c r="L24" s="9">
-        <f>L7*100</f>
+      <c r="L24" s="8">
+        <f t="shared" si="8"/>
         <v>-19.333333333333336</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G25">
-        <v>0.04</v>
-      </c>
-      <c r="I25" s="9">
-        <f>I8*100</f>
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="8"/>
         <v>-12.8</v>
       </c>
-      <c r="J25" s="9">
-        <f>J8*100</f>
+      <c r="J25" s="8">
+        <f t="shared" si="8"/>
         <v>-4.2222222222222223</v>
       </c>
-      <c r="K25" s="9">
-        <f>K8*100</f>
+      <c r="K25" s="8">
+        <f t="shared" si="8"/>
         <v>-6.25</v>
       </c>
-      <c r="L25" s="9">
-        <f>L8*100</f>
+      <c r="L25" s="8">
+        <f t="shared" si="8"/>
         <v>-18.000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G26">
-        <v>0.02</v>
-      </c>
-      <c r="I26" s="8">
-        <f>I9*100</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="8"/>
         <v>-8.7999999999999989</v>
       </c>
-      <c r="J26" s="8">
-        <f>J9*100</f>
+      <c r="J26" s="7">
+        <f t="shared" si="8"/>
         <v>-2.4444444444444446</v>
       </c>
-      <c r="K26" s="8">
-        <f>K9*100</f>
+      <c r="K26" s="7">
+        <f t="shared" si="8"/>
         <v>-4.2499999999999982</v>
       </c>
-      <c r="L26" s="8">
-        <f>L9*100</f>
+      <c r="L26" s="7">
+        <f t="shared" si="8"/>
         <v>-16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G27">
         <v>0</v>
       </c>
@@ -4127,150 +7287,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G28">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" ref="I22:L34" si="7">I10*100</f>
+        <v>0.04</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" ref="I28:L34" si="9">I10*100</f>
         <v>34.4</v>
       </c>
-      <c r="J28" s="9">
-        <f t="shared" si="7"/>
+      <c r="J28" s="8">
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="K28" s="9">
-        <f t="shared" si="7"/>
+      <c r="K28" s="8">
+        <f t="shared" si="9"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="7"/>
+      <c r="L28" s="8">
+        <f t="shared" si="9"/>
         <v>27.200000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G29">
-        <v>0.12</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="7"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="9"/>
         <v>29.599999999999998</v>
       </c>
-      <c r="J29" s="9">
-        <f t="shared" si="7"/>
+      <c r="J29" s="8">
+        <f t="shared" si="9"/>
         <v>15.4</v>
       </c>
-      <c r="K29" s="9">
-        <f t="shared" si="7"/>
+      <c r="K29" s="8">
+        <f t="shared" si="9"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="L29" s="9">
-        <f t="shared" si="7"/>
+      <c r="L29" s="8">
+        <f t="shared" si="9"/>
         <v>24.000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G30">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="7"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="9"/>
         <v>23.200000000000003</v>
       </c>
-      <c r="J30" s="9">
-        <f t="shared" si="7"/>
+      <c r="J30" s="8">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="K30" s="9">
-        <f t="shared" si="7"/>
+      <c r="K30" s="8">
+        <f t="shared" si="9"/>
         <v>13.809523809523801</v>
       </c>
-      <c r="L30" s="9">
-        <f t="shared" si="7"/>
+      <c r="L30" s="8">
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G31">
-        <v>0.08</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="7"/>
+        <v>2.2857142857142857E-2</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="J31" s="9">
-        <f t="shared" si="7"/>
+      <c r="J31" s="8">
+        <f t="shared" si="9"/>
         <v>10.4</v>
       </c>
-      <c r="K31" s="9">
-        <f t="shared" si="7"/>
+      <c r="K31" s="8">
+        <f t="shared" si="9"/>
         <v>7.1428571428571423</v>
       </c>
-      <c r="L31" s="9">
-        <f t="shared" si="7"/>
+      <c r="L31" s="8">
+        <f t="shared" si="9"/>
         <v>17.599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G32">
-        <v>0.06</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="9"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="J32" s="9">
-        <f t="shared" si="7"/>
+      <c r="J32" s="8">
+        <f t="shared" si="9"/>
         <v>7.8</v>
       </c>
-      <c r="K32" s="9">
-        <f t="shared" si="7"/>
+      <c r="K32" s="8">
+        <f t="shared" si="9"/>
         <v>4.7619047619047619</v>
       </c>
-      <c r="L32" s="9">
-        <f t="shared" si="7"/>
+      <c r="L32" s="8">
+        <f t="shared" si="9"/>
         <v>15.199999999999998</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G33">
-        <v>0.04</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" si="7"/>
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="9"/>
         <v>8.7999999999999989</v>
       </c>
-      <c r="J33" s="9">
-        <f t="shared" si="7"/>
+      <c r="J33" s="8">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="K33" s="9">
-        <f t="shared" si="7"/>
+      <c r="K33" s="8">
+        <f t="shared" si="9"/>
         <v>3.2857142857142918</v>
       </c>
-      <c r="L33" s="9">
-        <f t="shared" si="7"/>
+      <c r="L33" s="8">
+        <f t="shared" si="9"/>
         <v>13.599999999999996</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G34">
-        <v>0.02</v>
-      </c>
-      <c r="I34" s="9">
-        <f t="shared" si="7"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="9"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="J34" s="9">
-        <f t="shared" si="7"/>
+      <c r="J34" s="8">
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
-      <c r="K34" s="9">
-        <f t="shared" si="7"/>
+      <c r="K34" s="8">
+        <f t="shared" si="9"/>
         <v>1.4285714285714319</v>
       </c>
-      <c r="L34" s="9">
-        <f t="shared" si="7"/>
+      <c r="L34" s="8">
+        <f t="shared" si="9"/>
         <v>11.999999999999993</v>
       </c>
     </row>

--- a/Résultats expérimentaux/Resistances.xlsx
+++ b/Résultats expérimentaux/Resistances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/596fece5f6475ce4/INSA/4GP/Git/2023-2024-LEROI-FABRE/Résultats expérimentaux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{51F33E1C-E023-4E62-A0CF-A20C48241FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6EE3CCD-FA6D-4213-9037-4A58C5F3F17A}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{51F33E1C-E023-4E62-A0CF-A20C48241FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD48539-09AC-4630-B273-058DC574A410}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F71826C-A919-4064-B0D6-2EF0B44262A4}"/>
   </bookViews>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -249,7 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,25 +386,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -498,25 +497,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -609,25 +608,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -720,25 +719,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1234,25 +1233,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1345,25 +1344,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1456,25 +1455,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1567,25 +1566,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1995,9 +1994,96 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Tendance en Compression</a:t>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Déformation en fonction de </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>R/R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> pour différents types de crayons </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>en </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>compression</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2005,8 +2091,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39619174331006313"/>
-          <c:y val="2.5573678078229693E-2"/>
+          <c:x val="0.11408719423640971"/>
+          <c:y val="2.1408444976068707E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2048,7 +2134,7 @@
           <c:x val="0.11078395932821042"/>
           <c:y val="0.27142105668527716"/>
           <c:w val="0.80786918127423435"/>
-          <c:h val="0.41086346273284291"/>
+          <c:h val="0.54749604707646671"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2070,16 +2156,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -2087,7 +2183,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2103,25 +2199,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2185,16 +2281,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -2202,7 +2308,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2218,25 +2324,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2300,16 +2406,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -2317,7 +2433,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2333,25 +2449,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2415,16 +2531,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -2432,7 +2558,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2448,25 +2574,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2566,9 +2692,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Déformation</a:t>
+                  <a:rPr lang="fr-FR" sz="800"/>
+                  <a:t>Déformation </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="800">
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2691,9 +2824,38 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>DeltaR/R</a:t>
+                  <a:rPr lang="el-GR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="800"/>
+                  <a:t>/R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="400"/>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2884,8 +3046,52 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Tendance Extension</a:t>
+              <a:rPr lang="fr-FR" sz="1200"/>
+              <a:t>Déformation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+              <a:t> en fonction de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1200" baseline="0">
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" baseline="0">
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>R/R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="600" baseline="0">
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" baseline="0">
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> pour différents types de crayons </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" b="1" baseline="0">
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>en </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" b="1" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>e</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" b="1"/>
+              <a:t>xtension</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2921,7 +3127,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11878521060421375"/>
+          <c:y val="0.13958104588681577"/>
+          <c:w val="0.82198101245301969"/>
+          <c:h val="0.65629537001008342"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2941,16 +3157,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -2958,7 +3184,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2974,25 +3200,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3056,16 +3282,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -3073,7 +3309,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3089,25 +3325,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3171,16 +3407,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -3188,7 +3434,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3204,25 +3450,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3286,16 +3532,26 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -3303,7 +3559,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3319,25 +3575,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>5.3333333333333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142857E-2</c:v>
+                  <c:v>4.5714285714285718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>3.5555555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3437,9 +3693,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="800"/>
                   <a:t>Déformation</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3541,7 +3814,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3554,8 +3827,39 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>DeltaR/R</a:t>
+                  <a:rPr lang="el-GR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/R0</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3573,7 +3877,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3640,6 +3944,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6021,8 +6341,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>762801</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>153572</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>96212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6052,15 +6372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>80114</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>96213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>750471</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>165901</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76987</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>65426</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6409,8 +6729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9340D7B3-3088-4154-A354-CE890C23416D}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G45" zoomScale="130" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="F36" zoomScale="117" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6485,11 +6805,11 @@
       <c r="J2" s="7"/>
       <c r="L2" s="7"/>
       <c r="O2" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <f>$N$4/(2*O2)</f>
-        <v>0.04</v>
+        <f>$N$4/(O2)</f>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -6531,11 +6851,11 @@
         <v>13</v>
       </c>
       <c r="O3" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="P3">
-        <f>$N$4/(2*O3)</f>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" ref="P3:P17" si="0">$N$4/(O3)</f>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -6555,30 +6875,30 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I16" si="0">(C4-$C$17)/$C$17</f>
+        <f t="shared" ref="I4:I16" si="1">(C4-$C$17)/$C$17</f>
         <v>-0.28000000000000003</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J9" si="1">(D4-$D$18)/$D$18</f>
+        <f t="shared" ref="J4:J9" si="2">(D4-$D$18)/$D$18</f>
         <v>-0.11555555555555555</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K9" si="2">(E4-$E$18)/$E$18</f>
+        <f t="shared" ref="K4:K9" si="3">(E4-$E$18)/$E$18</f>
         <v>-0.20999999999999996</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L9" si="3">(F4-$F$18)/$F$18</f>
+        <f t="shared" ref="L4:L9" si="4">(F4-$F$18)/$F$18</f>
         <v>-0.26666666666666661</v>
       </c>
       <c r="N4">
         <v>0.16</v>
       </c>
       <c r="O4" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P4">
-        <f>$N$4/(2*O4)</f>
-        <v>2.6666666666666668E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.3333333333333332E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -6598,27 +6918,27 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I5" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="2"/>
+        <v>-9.555555555555556E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.17083333333333339</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.24000000000000007</v>
+      </c>
+      <c r="O5" s="9">
+        <v>35</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>-0.23200000000000001</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="1"/>
-        <v>-9.555555555555556E-2</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.17083333333333339</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.24000000000000007</v>
-      </c>
-      <c r="O5" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="P5">
-        <f>$N$4/(2*O5)</f>
-        <v>2.2857142857142857E-2</v>
+        <v>4.5714285714285718E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -6638,27 +6958,27 @@
         <v>1.17</v>
       </c>
       <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.184</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>-7.1111111111111111E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.15708333333333332</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.22000000000000006</v>
+      </c>
+      <c r="O6" s="9">
+        <v>40</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>-0.184</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="1"/>
-        <v>-7.1111111111111111E-2</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.15708333333333332</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.22000000000000006</v>
-      </c>
-      <c r="O6" s="9">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <f>$N$4/(2*O6)</f>
-        <v>0.02</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -6678,27 +6998,27 @@
         <v>1.21</v>
       </c>
       <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="2"/>
+        <v>-5.1111111111111114E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="3"/>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.19333333333333336</v>
+      </c>
+      <c r="O7" s="9">
+        <v>45</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
-        <v>-0.14399999999999999</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="1"/>
-        <v>-5.1111111111111114E-2</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" si="2"/>
-        <v>-8.3333333333333329E-2</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.19333333333333336</v>
-      </c>
-      <c r="O7" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="P7">
-        <f>$N$4/(2*O7)</f>
-        <v>1.7777777777777778E-2</v>
+        <v>3.5555555555555557E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -6718,27 +7038,27 @@
         <v>1.23</v>
       </c>
       <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.128</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="2"/>
+        <v>-4.2222222222222223E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.18000000000000002</v>
+      </c>
+      <c r="O8" s="10">
+        <v>50</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>-0.128</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="1"/>
-        <v>-4.2222222222222223E-2</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="2"/>
-        <v>-6.25E-2</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.18000000000000002</v>
-      </c>
-      <c r="O8" s="10">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <f>$N$4/(2*O8)</f>
-        <v>1.6E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -6759,22 +7079,22 @@
         <v>1.26</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.4444444444444446E-2</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.2499999999999982E-2</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.16</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="9">
         <v>0</v>
       </c>
       <c r="P9">
@@ -6801,7 +7121,7 @@
         <v>1.59</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34399999999999997</v>
       </c>
       <c r="J10" s="8">
@@ -6817,11 +7137,11 @@
         <v>0.27200000000000008</v>
       </c>
       <c r="O10" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P4:P17" si="4">$N$4/(2*O10)</f>
-        <v>0.04</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -6841,7 +7161,7 @@
         <v>1.55</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="J11" s="8">
@@ -6857,11 +7177,11 @@
         <v>0.24000000000000005</v>
       </c>
       <c r="O11" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -6881,7 +7201,7 @@
         <v>1.5</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23200000000000001</v>
       </c>
       <c r="J12" s="8">
@@ -6897,11 +7217,11 @@
         <v>0.2</v>
       </c>
       <c r="O12" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
-        <v>2.6666666666666668E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.3333333333333332E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -6921,7 +7241,7 @@
         <v>1.47</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="J13" s="8">
@@ -6937,11 +7257,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="O13" s="9">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
-        <v>2.2857142857142857E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5714285714285718E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -6961,7 +7281,7 @@
         <v>1.44</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14399999999999999</v>
       </c>
       <c r="J14" s="8">
@@ -6977,11 +7297,11 @@
         <v>0.15199999999999997</v>
       </c>
       <c r="O14" s="9">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -7001,7 +7321,7 @@
         <v>1.42</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="J15" s="8">
@@ -7017,11 +7337,11 @@
         <v>0.13599999999999995</v>
       </c>
       <c r="O15" s="9">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
-        <v>1.7777777777777778E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5555555555555557E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -7042,7 +7362,7 @@
         <v>1.4</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="J16" s="8">
@@ -7058,11 +7378,11 @@
         <v>0.11999999999999993</v>
       </c>
       <c r="O16" s="10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -7125,7 +7445,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G20">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ref="I20:L26" si="8">I3*100</f>
@@ -7146,7 +7466,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G21">
-        <v>3.2000000000000001E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="8"/>
@@ -7167,7 +7487,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G22">
-        <v>2.6666666666666668E-2</v>
+        <v>5.3333333333333332E-3</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="8"/>
@@ -7188,7 +7508,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G23">
-        <v>2.2857142857142857E-2</v>
+        <v>4.5714285714285718E-3</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="8"/>
@@ -7209,7 +7529,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G24">
-        <v>0.02</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="8"/>
@@ -7230,7 +7550,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G25">
-        <v>1.7777777777777778E-2</v>
+        <v>3.5555555555555557E-3</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="8"/>
@@ -7251,7 +7571,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G26">
-        <v>1.6E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="8"/>
@@ -7289,7 +7609,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G28">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" ref="I28:L34" si="9">I10*100</f>
@@ -7310,7 +7630,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G29">
-        <v>3.2000000000000001E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="9"/>
@@ -7331,7 +7651,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G30">
-        <v>2.6666666666666668E-2</v>
+        <v>5.3333333333333332E-3</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="9"/>
@@ -7352,7 +7672,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G31">
-        <v>2.2857142857142857E-2</v>
+        <v>4.5714285714285718E-3</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="9"/>
@@ -7373,7 +7693,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G32">
-        <v>0.02</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="9"/>
@@ -7394,7 +7714,7 @@
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G33">
-        <v>1.7777777777777778E-2</v>
+        <v>3.5555555555555557E-3</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="9"/>
@@ -7415,7 +7735,7 @@
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G34">
-        <v>1.6E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="9"/>

--- a/Résultats expérimentaux/Resistances.xlsx
+++ b/Résultats expérimentaux/Resistances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/596fece5f6475ce4/INSA/4GP/Git/2023-2024-LEROI-FABRE/Résultats expérimentaux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{51F33E1C-E023-4E62-A0CF-A20C48241FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD48539-09AC-4630-B273-058DC574A410}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{51F33E1C-E023-4E62-A0CF-A20C48241FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2830FC14-A53E-4F77-894D-832D4E1C6150}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F71826C-A919-4064-B0D6-2EF0B44262A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Compression</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Diamètre (mm)</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2137,7 @@
           <c:x val="0.11078395932821042"/>
           <c:y val="0.27142105668527716"/>
           <c:w val="0.80786918127423435"/>
-          <c:h val="0.54749604707646671"/>
+          <c:h val="0.60646143131666175"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2190,7 +2193,43 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15751851688187479"/>
+                  <c:y val="-2.5685027793182609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2315,7 +2354,73 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13529257089004851"/>
+                  <c:y val="-3.3664959954602322E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -1627,9x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2440,7 +2545,73 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12417959789413537"/>
+                  <c:y val="-3.4874189096818296E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -3104,9x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2565,7 +2736,43 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2497570677851979E-2"/>
+                  <c:y val="1.658924126546036E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2939,6 +3146,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3191,7 +3414,43 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1506593059303486"/>
+                  <c:y val="-8.2051664160654823E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3316,7 +3575,43 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15897483689773512"/>
+                  <c:y val="-6.3492046834048659E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3441,7 +3736,43 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15343114958614409"/>
+                  <c:y val="-4.7123167487034632E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3566,7 +3897,43 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15620299324193962"/>
+                  <c:y val="6.9143363729932119E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -6410,6 +6777,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -6729,8 +7100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9340D7B3-3088-4154-A354-CE890C23416D}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F36" zoomScale="117" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6741,6 +7112,7 @@
     <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
     <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -6778,7 +7150,7 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -6854,7 +7226,7 @@
         <v>25</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P17" si="0">$N$4/(O3)</f>
+        <f t="shared" ref="P3:P16" si="0">$N$4/(O3)</f>
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
